--- a/huion_k20/huion_layout.xls.xlsx
+++ b/huion_k20/huion_layout.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a02d7747fd16c87/Documents/GitHub/WaterPoloScoreBoard/huion_k20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AB3520-E6C2-400C-B99F-2F49CA16BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{59AB3520-E6C2-400C-B99F-2F49CA16BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB04BE3-A33B-43CC-BBF0-1CDCED3EC573}"/>
   <bookViews>
-    <workbookView xWindow="54980" yWindow="3660" windowWidth="21620" windowHeight="16460" xr2:uid="{7913F6BC-D14F-4780-AD20-51F26E16B15C}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7913F6BC-D14F-4780-AD20-51F26E16B15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,38 +177,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,83 +546,81 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="1" max="4" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -632,5 +629,12 @@
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{94523dde-f9d1-4aa7-80a9-c0900420d3c3}" enabled="1" method="Privileged" siteId="{3dd8961f-e488-4e60-8e11-a82d994e183d}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>